--- a/data/output/FV2504_FV2410/UTILMD/55168.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55168.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23760" uniqueCount="1301">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23781" uniqueCount="1301">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -4180,6 +4180,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U1503" totalsRowShown="0">
+  <autoFilter ref="A1:U1503"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4469,7 +4499,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U1503"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -65349,5 +65382,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55168.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55168.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28440" uniqueCount="2782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28310" uniqueCount="2782">
   <si>
     <t>#</t>
   </si>
@@ -13292,44 +13292,42 @@
       </c>
     </row>
     <row r="86" spans="1:22">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="2" t="s">
         <v>1379</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5" t="s">
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K86" s="5"/>
-      <c r="L86" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M86" s="5" t="s">
+      <c r="K86" s="2"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N86" s="5" t="s">
+      <c r="N86" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5" t="s">
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V86" s="5"/>
+      <c r="V86" s="2"/>
     </row>
     <row r="87" spans="1:22">
       <c r="A87" s="5" t="s">
@@ -14077,9 +14075,7 @@
         <v>915</v>
       </c>
       <c r="K102" s="5"/>
-      <c r="L102" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L102" s="4"/>
       <c r="M102" s="5" t="s">
         <v>40</v>
       </c>
@@ -14391,9 +14387,7 @@
         <v>915</v>
       </c>
       <c r="K108" s="5"/>
-      <c r="L108" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L108" s="4"/>
       <c r="M108" s="5" t="s">
         <v>41</v>
       </c>
@@ -14827,9 +14821,7 @@
         <v>915</v>
       </c>
       <c r="K116" s="5"/>
-      <c r="L116" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L116" s="4"/>
       <c r="M116" s="5" t="s">
         <v>43</v>
       </c>
@@ -14883,9 +14875,7 @@
         <v>915</v>
       </c>
       <c r="K117" s="5"/>
-      <c r="L117" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L117" s="4"/>
       <c r="M117" s="5" t="s">
         <v>43</v>
       </c>
@@ -14939,9 +14929,7 @@
         <v>915</v>
       </c>
       <c r="K118" s="5"/>
-      <c r="L118" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L118" s="4"/>
       <c r="M118" s="5" t="s">
         <v>43</v>
       </c>
@@ -15642,46 +15630,44 @@
       </c>
     </row>
     <row r="131" spans="1:22">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="2" t="s">
         <v>1421</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="C131" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="5"/>
-      <c r="I131" s="5"/>
-      <c r="J131" s="5" t="s">
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="K131" s="5" t="s">
+      <c r="K131" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="L131" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M131" s="5" t="s">
+      <c r="L131" s="4"/>
+      <c r="M131" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N131" s="5" t="s">
+      <c r="N131" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="O131" s="5"/>
-      <c r="P131" s="5"/>
-      <c r="Q131" s="5"/>
-      <c r="R131" s="5"/>
-      <c r="S131" s="5"/>
-      <c r="T131" s="5"/>
-      <c r="U131" s="5" t="s">
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="2"/>
+      <c r="R131" s="2"/>
+      <c r="S131" s="2"/>
+      <c r="T131" s="2"/>
+      <c r="U131" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="V131" s="5" t="s">
+      <c r="V131" s="2" t="s">
         <v>1082</v>
       </c>
     </row>
@@ -15962,44 +15948,42 @@
       </c>
     </row>
     <row r="137" spans="1:22">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="2" t="s">
         <v>1427</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C137" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-      <c r="J137" s="5" t="s">
+      <c r="C137" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K137" s="5"/>
-      <c r="L137" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M137" s="5" t="s">
+      <c r="K137" s="2"/>
+      <c r="L137" s="4"/>
+      <c r="M137" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N137" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O137" s="5"/>
-      <c r="P137" s="5"/>
-      <c r="Q137" s="5"/>
-      <c r="R137" s="5"/>
-      <c r="S137" s="5"/>
-      <c r="T137" s="5"/>
-      <c r="U137" s="5" t="s">
+      <c r="N137" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="2"/>
+      <c r="S137" s="2"/>
+      <c r="T137" s="2"/>
+      <c r="U137" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V137" s="5"/>
+      <c r="V137" s="2"/>
     </row>
     <row r="138" spans="1:22">
       <c r="A138" s="5" t="s">
@@ -16197,9 +16181,7 @@
         <v>915</v>
       </c>
       <c r="K141" s="5"/>
-      <c r="L141" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L141" s="4"/>
       <c r="M141" s="5" t="s">
         <v>49</v>
       </c>
@@ -16226,44 +16208,42 @@
       <c r="V141" s="5"/>
     </row>
     <row r="142" spans="1:22">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="2" t="s">
         <v>1431</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C142" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5" t="s">
+      <c r="C142" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K142" s="5"/>
-      <c r="L142" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M142" s="5" t="s">
+      <c r="K142" s="2"/>
+      <c r="L142" s="4"/>
+      <c r="M142" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N142" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O142" s="5"/>
-      <c r="P142" s="5"/>
-      <c r="Q142" s="5"/>
-      <c r="R142" s="5"/>
-      <c r="S142" s="5"/>
-      <c r="T142" s="5"/>
-      <c r="U142" s="5" t="s">
+      <c r="N142" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O142" s="2"/>
+      <c r="P142" s="2"/>
+      <c r="Q142" s="2"/>
+      <c r="R142" s="2"/>
+      <c r="S142" s="2"/>
+      <c r="T142" s="2"/>
+      <c r="U142" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V142" s="5"/>
+      <c r="V142" s="2"/>
     </row>
     <row r="143" spans="1:22">
       <c r="A143" s="5" t="s">
@@ -16625,9 +16605,7 @@
         <v>915</v>
       </c>
       <c r="K149" s="5"/>
-      <c r="L149" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L149" s="4"/>
       <c r="M149" s="5" t="s">
         <v>51</v>
       </c>
@@ -16681,9 +16659,7 @@
         <v>915</v>
       </c>
       <c r="K150" s="5"/>
-      <c r="L150" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L150" s="4"/>
       <c r="M150" s="5" t="s">
         <v>51</v>
       </c>
@@ -16710,46 +16686,44 @@
       <c r="V150" s="5"/>
     </row>
     <row r="151" spans="1:22">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="2" t="s">
         <v>1440</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="C151" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5"/>
-      <c r="J151" s="5" t="s">
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="K151" s="5" t="s">
+      <c r="K151" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="L151" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M151" s="5" t="s">
+      <c r="L151" s="4"/>
+      <c r="M151" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N151" s="5" t="s">
+      <c r="N151" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="O151" s="5"/>
-      <c r="P151" s="5"/>
-      <c r="Q151" s="5"/>
-      <c r="R151" s="5"/>
-      <c r="S151" s="5"/>
-      <c r="T151" s="5"/>
-      <c r="U151" s="5" t="s">
+      <c r="O151" s="2"/>
+      <c r="P151" s="2"/>
+      <c r="Q151" s="2"/>
+      <c r="R151" s="2"/>
+      <c r="S151" s="2"/>
+      <c r="T151" s="2"/>
+      <c r="U151" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="V151" s="5" t="s">
+      <c r="V151" s="2" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -17254,44 +17228,42 @@
       <c r="V160" s="5"/>
     </row>
     <row r="161" spans="1:22">
-      <c r="A161" s="5" t="s">
+      <c r="A161" s="2" t="s">
         <v>1450</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B161" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C161" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
-      <c r="I161" s="5"/>
-      <c r="J161" s="5" t="s">
+      <c r="C161" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K161" s="5"/>
-      <c r="L161" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M161" s="5" t="s">
+      <c r="K161" s="2"/>
+      <c r="L161" s="4"/>
+      <c r="M161" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N161" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O161" s="5"/>
-      <c r="P161" s="5"/>
-      <c r="Q161" s="5"/>
-      <c r="R161" s="5"/>
-      <c r="S161" s="5"/>
-      <c r="T161" s="5"/>
-      <c r="U161" s="5" t="s">
+      <c r="N161" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O161" s="2"/>
+      <c r="P161" s="2"/>
+      <c r="Q161" s="2"/>
+      <c r="R161" s="2"/>
+      <c r="S161" s="2"/>
+      <c r="T161" s="2"/>
+      <c r="U161" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V161" s="5"/>
+      <c r="V161" s="2"/>
     </row>
     <row r="162" spans="1:22">
       <c r="A162" s="5" t="s">
@@ -17510,44 +17482,42 @@
       <c r="V165" s="5"/>
     </row>
     <row r="166" spans="1:22">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="2" t="s">
         <v>1455</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C166" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="5" t="s">
+      <c r="C166" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K166" s="5"/>
-      <c r="L166" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M166" s="5" t="s">
+      <c r="K166" s="2"/>
+      <c r="L166" s="4"/>
+      <c r="M166" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N166" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O166" s="5"/>
-      <c r="P166" s="5"/>
-      <c r="Q166" s="5"/>
-      <c r="R166" s="5"/>
-      <c r="S166" s="5"/>
-      <c r="T166" s="5"/>
-      <c r="U166" s="5" t="s">
+      <c r="N166" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O166" s="2"/>
+      <c r="P166" s="2"/>
+      <c r="Q166" s="2"/>
+      <c r="R166" s="2"/>
+      <c r="S166" s="2"/>
+      <c r="T166" s="2"/>
+      <c r="U166" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V166" s="5"/>
+      <c r="V166" s="2"/>
     </row>
     <row r="167" spans="1:22">
       <c r="A167" s="5" t="s">
@@ -17793,9 +17763,7 @@
         <v>948</v>
       </c>
       <c r="K171" s="5"/>
-      <c r="L171" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L171" s="4"/>
       <c r="M171" s="5" t="s">
         <v>55</v>
       </c>
@@ -17822,46 +17790,44 @@
       <c r="V171" s="5"/>
     </row>
     <row r="172" spans="1:22">
-      <c r="A172" s="5" t="s">
+      <c r="A172" s="2" t="s">
         <v>1461</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B172" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C172" s="5" t="s">
+      <c r="C172" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="5"/>
-      <c r="J172" s="5" t="s">
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
+      <c r="J172" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="K172" s="5" t="s">
+      <c r="K172" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="L172" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M172" s="5" t="s">
+      <c r="L172" s="4"/>
+      <c r="M172" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N172" s="5" t="s">
+      <c r="N172" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="O172" s="5"/>
-      <c r="P172" s="5"/>
-      <c r="Q172" s="5"/>
-      <c r="R172" s="5"/>
-      <c r="S172" s="5"/>
-      <c r="T172" s="5"/>
-      <c r="U172" s="5" t="s">
+      <c r="O172" s="2"/>
+      <c r="P172" s="2"/>
+      <c r="Q172" s="2"/>
+      <c r="R172" s="2"/>
+      <c r="S172" s="2"/>
+      <c r="T172" s="2"/>
+      <c r="U172" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="V172" s="5" t="s">
+      <c r="V172" s="2" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -18370,46 +18336,44 @@
       <c r="V181" s="5"/>
     </row>
     <row r="182" spans="1:22">
-      <c r="A182" s="5" t="s">
+      <c r="A182" s="2" t="s">
         <v>1471</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C182" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
-      <c r="G182" s="5"/>
-      <c r="H182" s="5"/>
-      <c r="I182" s="5"/>
-      <c r="J182" s="5" t="s">
+      <c r="C182" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="K182" s="5" t="s">
+      <c r="K182" s="2" t="s">
         <v>1085</v>
       </c>
-      <c r="L182" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M182" s="5" t="s">
+      <c r="L182" s="4"/>
+      <c r="M182" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N182" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O182" s="5"/>
-      <c r="P182" s="5"/>
-      <c r="Q182" s="5"/>
-      <c r="R182" s="5"/>
-      <c r="S182" s="5"/>
-      <c r="T182" s="5"/>
-      <c r="U182" s="5" t="s">
+      <c r="N182" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O182" s="2"/>
+      <c r="P182" s="2"/>
+      <c r="Q182" s="2"/>
+      <c r="R182" s="2"/>
+      <c r="S182" s="2"/>
+      <c r="T182" s="2"/>
+      <c r="U182" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="V182" s="5" t="s">
+      <c r="V182" s="2" t="s">
         <v>1085</v>
       </c>
     </row>
@@ -18578,44 +18542,42 @@
       <c r="V185" s="5"/>
     </row>
     <row r="186" spans="1:22">
-      <c r="A186" s="5" t="s">
+      <c r="A186" s="2" t="s">
         <v>1475</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B186" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C186" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
-      <c r="G186" s="5"/>
-      <c r="H186" s="5"/>
-      <c r="I186" s="5"/>
-      <c r="J186" s="5" t="s">
+      <c r="C186" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K186" s="5"/>
-      <c r="L186" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M186" s="5" t="s">
+      <c r="K186" s="2"/>
+      <c r="L186" s="4"/>
+      <c r="M186" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N186" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O186" s="5"/>
-      <c r="P186" s="5"/>
-      <c r="Q186" s="5"/>
-      <c r="R186" s="5"/>
-      <c r="S186" s="5"/>
-      <c r="T186" s="5"/>
-      <c r="U186" s="5" t="s">
+      <c r="N186" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O186" s="2"/>
+      <c r="P186" s="2"/>
+      <c r="Q186" s="2"/>
+      <c r="R186" s="2"/>
+      <c r="S186" s="2"/>
+      <c r="T186" s="2"/>
+      <c r="U186" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V186" s="5"/>
+      <c r="V186" s="2"/>
     </row>
     <row r="187" spans="1:22">
       <c r="A187" s="5" t="s">
@@ -18861,9 +18823,7 @@
         <v>915</v>
       </c>
       <c r="K191" s="5"/>
-      <c r="L191" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L191" s="4"/>
       <c r="M191" s="5" t="s">
         <v>59</v>
       </c>
@@ -18946,44 +18906,42 @@
       <c r="V192" s="5"/>
     </row>
     <row r="193" spans="1:22">
-      <c r="A193" s="5" t="s">
+      <c r="A193" s="2" t="s">
         <v>1482</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="B193" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C193" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D193" s="5"/>
-      <c r="E193" s="5"/>
-      <c r="F193" s="5"/>
-      <c r="G193" s="5"/>
-      <c r="H193" s="5"/>
-      <c r="I193" s="5"/>
-      <c r="J193" s="5" t="s">
+      <c r="C193" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K193" s="5"/>
-      <c r="L193" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M193" s="5" t="s">
+      <c r="K193" s="2"/>
+      <c r="L193" s="4"/>
+      <c r="M193" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N193" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O193" s="5"/>
-      <c r="P193" s="5"/>
-      <c r="Q193" s="5"/>
-      <c r="R193" s="5"/>
-      <c r="S193" s="5"/>
-      <c r="T193" s="5"/>
-      <c r="U193" s="5" t="s">
+      <c r="N193" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O193" s="2"/>
+      <c r="P193" s="2"/>
+      <c r="Q193" s="2"/>
+      <c r="R193" s="2"/>
+      <c r="S193" s="2"/>
+      <c r="T193" s="2"/>
+      <c r="U193" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V193" s="5"/>
+      <c r="V193" s="2"/>
     </row>
     <row r="194" spans="1:22">
       <c r="A194" s="5" t="s">
@@ -19121,9 +19079,7 @@
         <v>921</v>
       </c>
       <c r="K196" s="5"/>
-      <c r="L196" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L196" s="4"/>
       <c r="M196" s="5" t="s">
         <v>60</v>
       </c>
@@ -19150,46 +19106,44 @@
       <c r="V196" s="5"/>
     </row>
     <row r="197" spans="1:22">
-      <c r="A197" s="5" t="s">
+      <c r="A197" s="2" t="s">
         <v>1486</v>
       </c>
-      <c r="B197" s="5" t="s">
+      <c r="B197" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C197" s="5" t="s">
+      <c r="C197" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D197" s="5"/>
-      <c r="E197" s="5"/>
-      <c r="F197" s="5"/>
-      <c r="G197" s="5"/>
-      <c r="H197" s="5"/>
-      <c r="I197" s="5"/>
-      <c r="J197" s="5" t="s">
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="K197" s="5" t="s">
+      <c r="K197" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="L197" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M197" s="5" t="s">
+      <c r="L197" s="4"/>
+      <c r="M197" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N197" s="5" t="s">
+      <c r="N197" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="O197" s="5"/>
-      <c r="P197" s="5"/>
-      <c r="Q197" s="5"/>
-      <c r="R197" s="5"/>
-      <c r="S197" s="5"/>
-      <c r="T197" s="5"/>
-      <c r="U197" s="5" t="s">
+      <c r="O197" s="2"/>
+      <c r="P197" s="2"/>
+      <c r="Q197" s="2"/>
+      <c r="R197" s="2"/>
+      <c r="S197" s="2"/>
+      <c r="T197" s="2"/>
+      <c r="U197" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="V197" s="5" t="s">
+      <c r="V197" s="2" t="s">
         <v>1086</v>
       </c>
     </row>
@@ -19470,46 +19424,44 @@
       </c>
     </row>
     <row r="203" spans="1:22">
-      <c r="A203" s="5" t="s">
+      <c r="A203" s="2" t="s">
         <v>1492</v>
       </c>
-      <c r="B203" s="5" t="s">
+      <c r="B203" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C203" s="5" t="s">
+      <c r="C203" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D203" s="5"/>
-      <c r="E203" s="5"/>
-      <c r="F203" s="5"/>
-      <c r="G203" s="5"/>
-      <c r="H203" s="5"/>
-      <c r="I203" s="5"/>
-      <c r="J203" s="5" t="s">
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+      <c r="J203" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="K203" s="5" t="s">
+      <c r="K203" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="L203" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M203" s="5" t="s">
+      <c r="L203" s="4"/>
+      <c r="M203" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N203" s="5" t="s">
+      <c r="N203" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="O203" s="5"/>
-      <c r="P203" s="5"/>
-      <c r="Q203" s="5"/>
-      <c r="R203" s="5"/>
-      <c r="S203" s="5"/>
-      <c r="T203" s="5"/>
-      <c r="U203" s="5" t="s">
+      <c r="O203" s="2"/>
+      <c r="P203" s="2"/>
+      <c r="Q203" s="2"/>
+      <c r="R203" s="2"/>
+      <c r="S203" s="2"/>
+      <c r="T203" s="2"/>
+      <c r="U203" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="V203" s="5" t="s">
+      <c r="V203" s="2" t="s">
         <v>1087</v>
       </c>
     </row>
@@ -19649,9 +19601,7 @@
         <v>915</v>
       </c>
       <c r="K206" s="5"/>
-      <c r="L206" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L206" s="4"/>
       <c r="M206" s="5" t="s">
         <v>63</v>
       </c>
@@ -19827,9 +19777,7 @@
       <c r="K209" s="5" t="s">
         <v>1089</v>
       </c>
-      <c r="L209" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L209" s="4"/>
       <c r="M209" s="5" t="s">
         <v>63</v>
       </c>
@@ -19858,46 +19806,44 @@
       </c>
     </row>
     <row r="210" spans="1:22">
-      <c r="A210" s="5" t="s">
+      <c r="A210" s="2" t="s">
         <v>1499</v>
       </c>
-      <c r="B210" s="5" t="s">
+      <c r="B210" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C210" s="5" t="s">
+      <c r="C210" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D210" s="5"/>
-      <c r="E210" s="5"/>
-      <c r="F210" s="5"/>
-      <c r="G210" s="5"/>
-      <c r="H210" s="5"/>
-      <c r="I210" s="5"/>
-      <c r="J210" s="5" t="s">
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+      <c r="J210" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="K210" s="5" t="s">
+      <c r="K210" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="L210" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M210" s="5" t="s">
+      <c r="L210" s="4"/>
+      <c r="M210" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="N210" s="5" t="s">
+      <c r="N210" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="O210" s="5"/>
-      <c r="P210" s="5"/>
-      <c r="Q210" s="5"/>
-      <c r="R210" s="5"/>
-      <c r="S210" s="5"/>
-      <c r="T210" s="5"/>
-      <c r="U210" s="5" t="s">
+      <c r="O210" s="2"/>
+      <c r="P210" s="2"/>
+      <c r="Q210" s="2"/>
+      <c r="R210" s="2"/>
+      <c r="S210" s="2"/>
+      <c r="T210" s="2"/>
+      <c r="U210" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="V210" s="5" t="s">
+      <c r="V210" s="2" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -20130,44 +20076,42 @@
       <c r="V214" s="5"/>
     </row>
     <row r="215" spans="1:22">
-      <c r="A215" s="5" t="s">
+      <c r="A215" s="2" t="s">
         <v>1504</v>
       </c>
-      <c r="B215" s="5" t="s">
+      <c r="B215" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C215" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D215" s="5"/>
-      <c r="E215" s="5"/>
-      <c r="F215" s="5"/>
-      <c r="G215" s="5"/>
-      <c r="H215" s="5"/>
-      <c r="I215" s="5"/>
-      <c r="J215" s="5" t="s">
+      <c r="C215" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+      <c r="H215" s="2"/>
+      <c r="I215" s="2"/>
+      <c r="J215" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K215" s="5"/>
-      <c r="L215" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M215" s="5" t="s">
+      <c r="K215" s="2"/>
+      <c r="L215" s="4"/>
+      <c r="M215" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N215" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O215" s="5"/>
-      <c r="P215" s="5"/>
-      <c r="Q215" s="5"/>
-      <c r="R215" s="5"/>
-      <c r="S215" s="5"/>
-      <c r="T215" s="5"/>
-      <c r="U215" s="5" t="s">
+      <c r="N215" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O215" s="2"/>
+      <c r="P215" s="2"/>
+      <c r="Q215" s="2"/>
+      <c r="R215" s="2"/>
+      <c r="S215" s="2"/>
+      <c r="T215" s="2"/>
+      <c r="U215" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V215" s="5"/>
+      <c r="V215" s="2"/>
     </row>
     <row r="216" spans="1:22">
       <c r="A216" s="5" t="s">
@@ -20365,9 +20309,7 @@
         <v>915</v>
       </c>
       <c r="K219" s="5"/>
-      <c r="L219" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L219" s="4"/>
       <c r="M219" s="5" t="s">
         <v>65</v>
       </c>
@@ -20394,44 +20336,42 @@
       <c r="V219" s="5"/>
     </row>
     <row r="220" spans="1:22">
-      <c r="A220" s="5" t="s">
+      <c r="A220" s="2" t="s">
         <v>1509</v>
       </c>
-      <c r="B220" s="5" t="s">
+      <c r="B220" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C220" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D220" s="5"/>
-      <c r="E220" s="5"/>
-      <c r="F220" s="5"/>
-      <c r="G220" s="5"/>
-      <c r="H220" s="5"/>
-      <c r="I220" s="5"/>
-      <c r="J220" s="5" t="s">
+      <c r="C220" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
+      <c r="H220" s="2"/>
+      <c r="I220" s="2"/>
+      <c r="J220" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K220" s="5"/>
-      <c r="L220" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M220" s="5" t="s">
+      <c r="K220" s="2"/>
+      <c r="L220" s="4"/>
+      <c r="M220" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N220" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O220" s="5"/>
-      <c r="P220" s="5"/>
-      <c r="Q220" s="5"/>
-      <c r="R220" s="5"/>
-      <c r="S220" s="5"/>
-      <c r="T220" s="5"/>
-      <c r="U220" s="5" t="s">
+      <c r="N220" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O220" s="2"/>
+      <c r="P220" s="2"/>
+      <c r="Q220" s="2"/>
+      <c r="R220" s="2"/>
+      <c r="S220" s="2"/>
+      <c r="T220" s="2"/>
+      <c r="U220" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V220" s="5"/>
+      <c r="V220" s="2"/>
     </row>
     <row r="221" spans="1:22">
       <c r="A221" s="5" t="s">
@@ -21334,44 +21274,42 @@
       <c r="V236" s="5"/>
     </row>
     <row r="237" spans="1:22">
-      <c r="A237" s="5" t="s">
+      <c r="A237" s="2" t="s">
         <v>1526</v>
       </c>
-      <c r="B237" s="5" t="s">
+      <c r="B237" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C237" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D237" s="5"/>
-      <c r="E237" s="5"/>
-      <c r="F237" s="5"/>
-      <c r="G237" s="5"/>
-      <c r="H237" s="5"/>
-      <c r="I237" s="5"/>
-      <c r="J237" s="5" t="s">
+      <c r="C237" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="2"/>
+      <c r="I237" s="2"/>
+      <c r="J237" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K237" s="5"/>
-      <c r="L237" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M237" s="5" t="s">
+      <c r="K237" s="2"/>
+      <c r="L237" s="4"/>
+      <c r="M237" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N237" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O237" s="5"/>
-      <c r="P237" s="5"/>
-      <c r="Q237" s="5"/>
-      <c r="R237" s="5"/>
-      <c r="S237" s="5"/>
-      <c r="T237" s="5"/>
-      <c r="U237" s="5" t="s">
+      <c r="N237" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O237" s="2"/>
+      <c r="P237" s="2"/>
+      <c r="Q237" s="2"/>
+      <c r="R237" s="2"/>
+      <c r="S237" s="2"/>
+      <c r="T237" s="2"/>
+      <c r="U237" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V237" s="5"/>
+      <c r="V237" s="2"/>
     </row>
     <row r="238" spans="1:22">
       <c r="A238" s="5" t="s">
@@ -21617,9 +21555,7 @@
         <v>915</v>
       </c>
       <c r="K242" s="5"/>
-      <c r="L242" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L242" s="4"/>
       <c r="M242" s="5" t="s">
         <v>68</v>
       </c>
@@ -21673,9 +21609,7 @@
         <v>915</v>
       </c>
       <c r="K243" s="5"/>
-      <c r="L243" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L243" s="4"/>
       <c r="M243" s="5" t="s">
         <v>68</v>
       </c>
@@ -21729,9 +21663,7 @@
         <v>915</v>
       </c>
       <c r="K244" s="5"/>
-      <c r="L244" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L244" s="4"/>
       <c r="M244" s="5" t="s">
         <v>68</v>
       </c>
@@ -21758,44 +21690,42 @@
       <c r="V244" s="5"/>
     </row>
     <row r="245" spans="1:22">
-      <c r="A245" s="5" t="s">
+      <c r="A245" s="2" t="s">
         <v>1534</v>
       </c>
-      <c r="B245" s="5" t="s">
+      <c r="B245" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C245" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D245" s="5"/>
-      <c r="E245" s="5"/>
-      <c r="F245" s="5"/>
-      <c r="G245" s="5"/>
-      <c r="H245" s="5"/>
-      <c r="I245" s="5"/>
-      <c r="J245" s="5" t="s">
+      <c r="C245" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+      <c r="H245" s="2"/>
+      <c r="I245" s="2"/>
+      <c r="J245" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K245" s="5"/>
-      <c r="L245" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M245" s="5" t="s">
+      <c r="K245" s="2"/>
+      <c r="L245" s="4"/>
+      <c r="M245" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="N245" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O245" s="5"/>
-      <c r="P245" s="5"/>
-      <c r="Q245" s="5"/>
-      <c r="R245" s="5"/>
-      <c r="S245" s="5"/>
-      <c r="T245" s="5"/>
-      <c r="U245" s="5" t="s">
+      <c r="N245" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O245" s="2"/>
+      <c r="P245" s="2"/>
+      <c r="Q245" s="2"/>
+      <c r="R245" s="2"/>
+      <c r="S245" s="2"/>
+      <c r="T245" s="2"/>
+      <c r="U245" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V245" s="5"/>
+      <c r="V245" s="2"/>
     </row>
     <row r="246" spans="1:22">
       <c r="A246" s="5" t="s">
@@ -22041,9 +21971,7 @@
         <v>915</v>
       </c>
       <c r="K250" s="5"/>
-      <c r="L250" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L250" s="4"/>
       <c r="M250" s="5" t="s">
         <v>69</v>
       </c>
@@ -22070,44 +21998,42 @@
       <c r="V250" s="5"/>
     </row>
     <row r="251" spans="1:22">
-      <c r="A251" s="5" t="s">
+      <c r="A251" s="2" t="s">
         <v>1540</v>
       </c>
-      <c r="B251" s="5" t="s">
+      <c r="B251" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C251" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D251" s="5"/>
-      <c r="E251" s="5"/>
-      <c r="F251" s="5"/>
-      <c r="G251" s="5"/>
-      <c r="H251" s="5"/>
-      <c r="I251" s="5"/>
-      <c r="J251" s="5" t="s">
+      <c r="C251" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D251" s="2"/>
+      <c r="E251" s="2"/>
+      <c r="F251" s="2"/>
+      <c r="G251" s="2"/>
+      <c r="H251" s="2"/>
+      <c r="I251" s="2"/>
+      <c r="J251" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K251" s="5"/>
-      <c r="L251" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M251" s="5" t="s">
+      <c r="K251" s="2"/>
+      <c r="L251" s="4"/>
+      <c r="M251" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N251" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O251" s="5"/>
-      <c r="P251" s="5"/>
-      <c r="Q251" s="5"/>
-      <c r="R251" s="5"/>
-      <c r="S251" s="5"/>
-      <c r="T251" s="5"/>
-      <c r="U251" s="5" t="s">
+      <c r="N251" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O251" s="2"/>
+      <c r="P251" s="2"/>
+      <c r="Q251" s="2"/>
+      <c r="R251" s="2"/>
+      <c r="S251" s="2"/>
+      <c r="T251" s="2"/>
+      <c r="U251" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V251" s="5"/>
+      <c r="V251" s="2"/>
     </row>
     <row r="252" spans="1:22">
       <c r="A252" s="5" t="s">
@@ -22305,9 +22231,7 @@
         <v>915</v>
       </c>
       <c r="K255" s="5"/>
-      <c r="L255" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L255" s="4"/>
       <c r="M255" s="5" t="s">
         <v>70</v>
       </c>
@@ -22334,44 +22258,42 @@
       <c r="V255" s="5"/>
     </row>
     <row r="256" spans="1:22">
-      <c r="A256" s="5" t="s">
+      <c r="A256" s="2" t="s">
         <v>1545</v>
       </c>
-      <c r="B256" s="5" t="s">
+      <c r="B256" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C256" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D256" s="5"/>
-      <c r="E256" s="5"/>
-      <c r="F256" s="5"/>
-      <c r="G256" s="5"/>
-      <c r="H256" s="5"/>
-      <c r="I256" s="5"/>
-      <c r="J256" s="5" t="s">
+      <c r="C256" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D256" s="2"/>
+      <c r="E256" s="2"/>
+      <c r="F256" s="2"/>
+      <c r="G256" s="2"/>
+      <c r="H256" s="2"/>
+      <c r="I256" s="2"/>
+      <c r="J256" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K256" s="5"/>
-      <c r="L256" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M256" s="5" t="s">
+      <c r="K256" s="2"/>
+      <c r="L256" s="4"/>
+      <c r="M256" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N256" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O256" s="5"/>
-      <c r="P256" s="5"/>
-      <c r="Q256" s="5"/>
-      <c r="R256" s="5"/>
-      <c r="S256" s="5"/>
-      <c r="T256" s="5"/>
-      <c r="U256" s="5" t="s">
+      <c r="N256" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O256" s="2"/>
+      <c r="P256" s="2"/>
+      <c r="Q256" s="2"/>
+      <c r="R256" s="2"/>
+      <c r="S256" s="2"/>
+      <c r="T256" s="2"/>
+      <c r="U256" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V256" s="5"/>
+      <c r="V256" s="2"/>
     </row>
     <row r="257" spans="1:22">
       <c r="A257" s="5" t="s">
@@ -22509,9 +22431,7 @@
         <v>915</v>
       </c>
       <c r="K259" s="5"/>
-      <c r="L259" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L259" s="4"/>
       <c r="M259" s="5" t="s">
         <v>71</v>
       </c>
@@ -22677,9 +22597,7 @@
         <v>921</v>
       </c>
       <c r="K262" s="5"/>
-      <c r="L262" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L262" s="4"/>
       <c r="M262" s="5" t="s">
         <v>72</v>
       </c>
@@ -22733,9 +22651,7 @@
         <v>921</v>
       </c>
       <c r="K263" s="5"/>
-      <c r="L263" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L263" s="4"/>
       <c r="M263" s="5" t="s">
         <v>72</v>
       </c>
@@ -22762,46 +22678,44 @@
       <c r="V263" s="5"/>
     </row>
     <row r="264" spans="1:22">
-      <c r="A264" s="5" t="s">
+      <c r="A264" s="2" t="s">
         <v>1553</v>
       </c>
-      <c r="B264" s="5" t="s">
+      <c r="B264" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C264" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D264" s="5"/>
-      <c r="E264" s="5"/>
-      <c r="F264" s="5"/>
-      <c r="G264" s="5"/>
-      <c r="H264" s="5"/>
-      <c r="I264" s="5"/>
-      <c r="J264" s="5" t="s">
+      <c r="C264" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D264" s="2"/>
+      <c r="E264" s="2"/>
+      <c r="F264" s="2"/>
+      <c r="G264" s="2"/>
+      <c r="H264" s="2"/>
+      <c r="I264" s="2"/>
+      <c r="J264" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="K264" s="5" t="s">
+      <c r="K264" s="2" t="s">
         <v>1096</v>
       </c>
-      <c r="L264" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M264" s="5" t="s">
+      <c r="L264" s="4"/>
+      <c r="M264" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="N264" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O264" s="5"/>
-      <c r="P264" s="5"/>
-      <c r="Q264" s="5"/>
-      <c r="R264" s="5"/>
-      <c r="S264" s="5"/>
-      <c r="T264" s="5"/>
-      <c r="U264" s="5" t="s">
+      <c r="N264" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O264" s="2"/>
+      <c r="P264" s="2"/>
+      <c r="Q264" s="2"/>
+      <c r="R264" s="2"/>
+      <c r="S264" s="2"/>
+      <c r="T264" s="2"/>
+      <c r="U264" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="V264" s="5" t="s">
+      <c r="V264" s="2" t="s">
         <v>1096</v>
       </c>
     </row>
@@ -23049,9 +22963,7 @@
         <v>915</v>
       </c>
       <c r="K269" s="5"/>
-      <c r="L269" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L269" s="4"/>
       <c r="M269" s="5" t="s">
         <v>74</v>
       </c>
@@ -23105,9 +23017,7 @@
         <v>915</v>
       </c>
       <c r="K270" s="5"/>
-      <c r="L270" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L270" s="4"/>
       <c r="M270" s="5" t="s">
         <v>74</v>
       </c>
@@ -23161,9 +23071,7 @@
         <v>915</v>
       </c>
       <c r="K271" s="5"/>
-      <c r="L271" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L271" s="4"/>
       <c r="M271" s="5" t="s">
         <v>74</v>
       </c>
@@ -23217,9 +23125,7 @@
         <v>915</v>
       </c>
       <c r="K272" s="5"/>
-      <c r="L272" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L272" s="4"/>
       <c r="M272" s="5" t="s">
         <v>74</v>
       </c>
@@ -23246,46 +23152,44 @@
       <c r="V272" s="5"/>
     </row>
     <row r="273" spans="1:22">
-      <c r="A273" s="5" t="s">
+      <c r="A273" s="2" t="s">
         <v>1561</v>
       </c>
-      <c r="B273" s="5" t="s">
+      <c r="B273" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C273" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D273" s="5"/>
-      <c r="E273" s="5"/>
-      <c r="F273" s="5"/>
-      <c r="G273" s="5"/>
-      <c r="H273" s="5"/>
-      <c r="I273" s="5"/>
-      <c r="J273" s="5" t="s">
+      <c r="C273" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D273" s="2"/>
+      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
+      <c r="G273" s="2"/>
+      <c r="H273" s="2"/>
+      <c r="I273" s="2"/>
+      <c r="J273" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="K273" s="5" t="s">
+      <c r="K273" s="2" t="s">
         <v>1097</v>
       </c>
-      <c r="L273" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M273" s="5" t="s">
+      <c r="L273" s="4"/>
+      <c r="M273" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="N273" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O273" s="5"/>
-      <c r="P273" s="5"/>
-      <c r="Q273" s="5"/>
-      <c r="R273" s="5"/>
-      <c r="S273" s="5"/>
-      <c r="T273" s="5"/>
-      <c r="U273" s="5" t="s">
+      <c r="N273" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O273" s="2"/>
+      <c r="P273" s="2"/>
+      <c r="Q273" s="2"/>
+      <c r="R273" s="2"/>
+      <c r="S273" s="2"/>
+      <c r="T273" s="2"/>
+      <c r="U273" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="V273" s="5" t="s">
+      <c r="V273" s="2" t="s">
         <v>1097</v>
       </c>
     </row>
@@ -23485,9 +23389,7 @@
         <v>915</v>
       </c>
       <c r="K277" s="5"/>
-      <c r="L277" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L277" s="4"/>
       <c r="M277" s="5" t="s">
         <v>75</v>
       </c>
@@ -23514,46 +23416,44 @@
       <c r="V277" s="5"/>
     </row>
     <row r="278" spans="1:22">
-      <c r="A278" s="5" t="s">
+      <c r="A278" s="2" t="s">
         <v>1566</v>
       </c>
-      <c r="B278" s="5" t="s">
+      <c r="B278" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C278" s="5" t="s">
+      <c r="C278" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D278" s="5"/>
-      <c r="E278" s="5"/>
-      <c r="F278" s="5"/>
-      <c r="G278" s="5"/>
-      <c r="H278" s="5"/>
-      <c r="I278" s="5"/>
-      <c r="J278" s="5" t="s">
+      <c r="D278" s="2"/>
+      <c r="E278" s="2"/>
+      <c r="F278" s="2"/>
+      <c r="G278" s="2"/>
+      <c r="H278" s="2"/>
+      <c r="I278" s="2"/>
+      <c r="J278" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="K278" s="5" t="s">
+      <c r="K278" s="2" t="s">
         <v>1098</v>
       </c>
-      <c r="L278" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M278" s="5" t="s">
+      <c r="L278" s="4"/>
+      <c r="M278" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="N278" s="5" t="s">
+      <c r="N278" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="O278" s="5"/>
-      <c r="P278" s="5"/>
-      <c r="Q278" s="5"/>
-      <c r="R278" s="5"/>
-      <c r="S278" s="5"/>
-      <c r="T278" s="5"/>
-      <c r="U278" s="5" t="s">
+      <c r="O278" s="2"/>
+      <c r="P278" s="2"/>
+      <c r="Q278" s="2"/>
+      <c r="R278" s="2"/>
+      <c r="S278" s="2"/>
+      <c r="T278" s="2"/>
+      <c r="U278" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="V278" s="5" t="s">
+      <c r="V278" s="2" t="s">
         <v>1098</v>
       </c>
     </row>
@@ -24062,46 +23962,44 @@
       <c r="V287" s="5"/>
     </row>
     <row r="288" spans="1:22">
-      <c r="A288" s="5" t="s">
+      <c r="A288" s="2" t="s">
         <v>1576</v>
       </c>
-      <c r="B288" s="5" t="s">
+      <c r="B288" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C288" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D288" s="5"/>
-      <c r="E288" s="5"/>
-      <c r="F288" s="5"/>
-      <c r="G288" s="5"/>
-      <c r="H288" s="5"/>
-      <c r="I288" s="5"/>
-      <c r="J288" s="5" t="s">
+      <c r="C288" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D288" s="2"/>
+      <c r="E288" s="2"/>
+      <c r="F288" s="2"/>
+      <c r="G288" s="2"/>
+      <c r="H288" s="2"/>
+      <c r="I288" s="2"/>
+      <c r="J288" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="K288" s="5" t="s">
+      <c r="K288" s="2" t="s">
         <v>1100</v>
       </c>
-      <c r="L288" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M288" s="5" t="s">
+      <c r="L288" s="4"/>
+      <c r="M288" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N288" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O288" s="5"/>
-      <c r="P288" s="5"/>
-      <c r="Q288" s="5"/>
-      <c r="R288" s="5"/>
-      <c r="S288" s="5"/>
-      <c r="T288" s="5"/>
-      <c r="U288" s="5" t="s">
+      <c r="N288" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O288" s="2"/>
+      <c r="P288" s="2"/>
+      <c r="Q288" s="2"/>
+      <c r="R288" s="2"/>
+      <c r="S288" s="2"/>
+      <c r="T288" s="2"/>
+      <c r="U288" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="V288" s="5" t="s">
+      <c r="V288" s="2" t="s">
         <v>1100</v>
       </c>
     </row>
@@ -24243,9 +24141,7 @@
       <c r="K291" s="5" t="s">
         <v>1101</v>
       </c>
-      <c r="L291" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L291" s="4"/>
       <c r="M291" s="5" t="s">
         <v>77</v>
       </c>
@@ -24334,44 +24230,42 @@
       </c>
     </row>
     <row r="293" spans="1:22">
-      <c r="A293" s="5" t="s">
+      <c r="A293" s="2" t="s">
         <v>1581</v>
       </c>
-      <c r="B293" s="5" t="s">
+      <c r="B293" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C293" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D293" s="5"/>
-      <c r="E293" s="5"/>
-      <c r="F293" s="5"/>
-      <c r="G293" s="5"/>
-      <c r="H293" s="5"/>
-      <c r="I293" s="5"/>
-      <c r="J293" s="5" t="s">
+      <c r="C293" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D293" s="2"/>
+      <c r="E293" s="2"/>
+      <c r="F293" s="2"/>
+      <c r="G293" s="2"/>
+      <c r="H293" s="2"/>
+      <c r="I293" s="2"/>
+      <c r="J293" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K293" s="5"/>
-      <c r="L293" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M293" s="5" t="s">
+      <c r="K293" s="2"/>
+      <c r="L293" s="4"/>
+      <c r="M293" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N293" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O293" s="5"/>
-      <c r="P293" s="5"/>
-      <c r="Q293" s="5"/>
-      <c r="R293" s="5"/>
-      <c r="S293" s="5"/>
-      <c r="T293" s="5"/>
-      <c r="U293" s="5" t="s">
+      <c r="N293" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O293" s="2"/>
+      <c r="P293" s="2"/>
+      <c r="Q293" s="2"/>
+      <c r="R293" s="2"/>
+      <c r="S293" s="2"/>
+      <c r="T293" s="2"/>
+      <c r="U293" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V293" s="5"/>
+      <c r="V293" s="2"/>
     </row>
     <row r="294" spans="1:22">
       <c r="A294" s="5" t="s">
@@ -24617,9 +24511,7 @@
         <v>970</v>
       </c>
       <c r="K298" s="5"/>
-      <c r="L298" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L298" s="4"/>
       <c r="M298" s="5" t="s">
         <v>79</v>
       </c>
@@ -24673,9 +24565,7 @@
         <v>971</v>
       </c>
       <c r="K299" s="5"/>
-      <c r="L299" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L299" s="4"/>
       <c r="M299" s="5" t="s">
         <v>79</v>
       </c>
@@ -24729,9 +24619,7 @@
         <v>972</v>
       </c>
       <c r="K300" s="5"/>
-      <c r="L300" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L300" s="4"/>
       <c r="M300" s="5" t="s">
         <v>79</v>
       </c>
@@ -25862,46 +25750,44 @@
       <c r="V324" s="5"/>
     </row>
     <row r="325" spans="1:22">
-      <c r="A325" s="5" t="s">
+      <c r="A325" s="2" t="s">
         <v>1611</v>
       </c>
-      <c r="B325" s="5" t="s">
+      <c r="B325" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C325" s="5" t="s">
+      <c r="C325" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D325" s="5"/>
-      <c r="E325" s="5"/>
-      <c r="F325" s="5"/>
-      <c r="G325" s="5"/>
-      <c r="H325" s="5"/>
-      <c r="I325" s="5"/>
-      <c r="J325" s="5" t="s">
+      <c r="D325" s="2"/>
+      <c r="E325" s="2"/>
+      <c r="F325" s="2"/>
+      <c r="G325" s="2"/>
+      <c r="H325" s="2"/>
+      <c r="I325" s="2"/>
+      <c r="J325" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="K325" s="5" t="s">
+      <c r="K325" s="2" t="s">
         <v>1104</v>
       </c>
-      <c r="L325" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M325" s="5" t="s">
+      <c r="L325" s="4"/>
+      <c r="M325" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N325" s="5" t="s">
+      <c r="N325" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="O325" s="5"/>
-      <c r="P325" s="5"/>
-      <c r="Q325" s="5"/>
-      <c r="R325" s="5"/>
-      <c r="S325" s="5"/>
-      <c r="T325" s="5"/>
-      <c r="U325" s="5" t="s">
+      <c r="O325" s="2"/>
+      <c r="P325" s="2"/>
+      <c r="Q325" s="2"/>
+      <c r="R325" s="2"/>
+      <c r="S325" s="2"/>
+      <c r="T325" s="2"/>
+      <c r="U325" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="V325" s="5" t="s">
+      <c r="V325" s="2" t="s">
         <v>1104</v>
       </c>
     </row>
@@ -26697,9 +26583,7 @@
         <v>915</v>
       </c>
       <c r="K340" s="5"/>
-      <c r="L340" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L340" s="4"/>
       <c r="M340" s="5" t="s">
         <v>84</v>
       </c>
@@ -26753,9 +26637,7 @@
         <v>915</v>
       </c>
       <c r="K341" s="5"/>
-      <c r="L341" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L341" s="4"/>
       <c r="M341" s="5" t="s">
         <v>84</v>
       </c>
@@ -26809,9 +26691,7 @@
         <v>915</v>
       </c>
       <c r="K342" s="5"/>
-      <c r="L342" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L342" s="4"/>
       <c r="M342" s="5" t="s">
         <v>84</v>
       </c>
@@ -27046,46 +26926,44 @@
       <c r="V346" s="5"/>
     </row>
     <row r="347" spans="1:22">
-      <c r="A347" s="5" t="s">
+      <c r="A347" s="2" t="s">
         <v>1633</v>
       </c>
-      <c r="B347" s="5" t="s">
+      <c r="B347" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C347" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D347" s="5"/>
-      <c r="E347" s="5"/>
-      <c r="F347" s="5"/>
-      <c r="G347" s="5"/>
-      <c r="H347" s="5"/>
-      <c r="I347" s="5"/>
-      <c r="J347" s="5" t="s">
+      <c r="C347" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D347" s="2"/>
+      <c r="E347" s="2"/>
+      <c r="F347" s="2"/>
+      <c r="G347" s="2"/>
+      <c r="H347" s="2"/>
+      <c r="I347" s="2"/>
+      <c r="J347" s="2" t="s">
         <v>984</v>
       </c>
-      <c r="K347" s="5" t="s">
+      <c r="K347" s="2" t="s">
         <v>1108</v>
       </c>
-      <c r="L347" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M347" s="5" t="s">
+      <c r="L347" s="4"/>
+      <c r="M347" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N347" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O347" s="5"/>
-      <c r="P347" s="5"/>
-      <c r="Q347" s="5"/>
-      <c r="R347" s="5"/>
-      <c r="S347" s="5"/>
-      <c r="T347" s="5"/>
-      <c r="U347" s="5" t="s">
+      <c r="N347" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O347" s="2"/>
+      <c r="P347" s="2"/>
+      <c r="Q347" s="2"/>
+      <c r="R347" s="2"/>
+      <c r="S347" s="2"/>
+      <c r="T347" s="2"/>
+      <c r="U347" s="2" t="s">
         <v>984</v>
       </c>
-      <c r="V347" s="5" t="s">
+      <c r="V347" s="2" t="s">
         <v>1108</v>
       </c>
     </row>
@@ -27254,44 +27132,42 @@
       <c r="V350" s="5"/>
     </row>
     <row r="351" spans="1:22">
-      <c r="A351" s="5" t="s">
+      <c r="A351" s="2" t="s">
         <v>1637</v>
       </c>
-      <c r="B351" s="5" t="s">
+      <c r="B351" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C351" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D351" s="5"/>
-      <c r="E351" s="5"/>
-      <c r="F351" s="5"/>
-      <c r="G351" s="5"/>
-      <c r="H351" s="5"/>
-      <c r="I351" s="5"/>
-      <c r="J351" s="5" t="s">
+      <c r="C351" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D351" s="2"/>
+      <c r="E351" s="2"/>
+      <c r="F351" s="2"/>
+      <c r="G351" s="2"/>
+      <c r="H351" s="2"/>
+      <c r="I351" s="2"/>
+      <c r="J351" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="K351" s="5"/>
-      <c r="L351" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="M351" s="5" t="s">
+      <c r="K351" s="2"/>
+      <c r="L351" s="4"/>
+      <c r="M351" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="N351" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="O351" s="5"/>
-      <c r="P351" s="5"/>
-      <c r="Q351" s="5"/>
-      <c r="R351" s="5"/>
-      <c r="S351" s="5"/>
-      <c r="T351" s="5"/>
-      <c r="U351" s="5" t="s">
+      <c r="N351" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O351" s="2"/>
+      <c r="P351" s="2"/>
+      <c r="Q351" s="2"/>
+      <c r="R351" s="2"/>
+      <c r="S351" s="2"/>
+      <c r="T351" s="2"/>
+      <c r="U351" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="V351" s="5"/>
+      <c r="V351" s="2"/>
     </row>
     <row r="352" spans="1:22">
       <c r="A352" s="5" t="s">
@@ -27537,9 +27413,7 @@
         <v>986</v>
       </c>
       <c r="K356" s="5"/>
-      <c r="L356" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L356" s="4"/>
       <c r="M356" s="5" t="s">
         <v>55</v>
       </c>
@@ -27593,9 +27467,7 @@
         <v>987</v>
       </c>
       <c r="K357" s="5"/>
-      <c r="L357" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L357" s="4"/>
       <c r="M357" s="5" t="s">
         <v>55</v>
       </c>
@@ -27649,9 +27521,7 @@
         <v>988</v>
       </c>
       <c r="K358" s="5"/>
-      <c r="L358" s="7" t="s">
-        <v>1170</v>
-      </c>
+      <c r="L358" s="4"/>
       <c r="M358" s="5" t="s">
         <v>55</v>
       </c>
